--- a/formats/excel/SSR/2013/Formats RHA 13.xlsx
+++ b/formats/excel/SSR/2013/Formats RHA 13.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/SSR/2013/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BA1E5-0C3C-E840-873F-3599FD8B273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="12855" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
   <si>
     <t>libelle</t>
   </si>
@@ -352,14 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,353 +367,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -721,307 +384,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1282,21 +664,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.3733333333333" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1416,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1496,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1516,7 +897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1556,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1576,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1596,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1616,7 +997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1636,7 +1017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1656,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1676,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1696,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1716,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1736,7 +1117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1756,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1776,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1796,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1816,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1836,7 +1217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1856,7 +1237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1876,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1896,7 +1277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1936,7 +1317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1956,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1976,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1996,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2016,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2036,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2056,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2076,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2096,7 +1477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2116,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2136,7 +1517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2156,7 +1537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2176,7 +1557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2196,7 +1577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2216,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2236,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2256,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2276,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2296,7 +1677,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2316,7 +1697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2336,13 +1717,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>110</v>
       </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
       <c r="D53">
         <v>153</v>
       </c>
@@ -2354,7 +1732,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>